--- a/Lab4/TestCase_Bai5.xlsx
+++ b/Lab4/TestCase_Bai5.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984166F8-95E5-4724-BDA9-D33954E104CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ki2Nam4\Testing\Testing_Lab\Lab4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6284CE90-8D2E-48FE-927D-510FC958B382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>KẾT QUẢ KHI CHẠY TEST EXPLORER</t>
   </si>
@@ -49,12 +52,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Automated</t>
-  </si>
-  <si>
-    <t>Test Refer</t>
   </si>
   <si>
     <t>Notes</t>
@@ -98,12 +95,6 @@
     </r>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>HocBong_TC</t>
-  </si>
-  <si>
     <t>Trường hợp chuẩn</t>
   </si>
   <si>
@@ -255,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,16 +358,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68F8B694-B22F-4CFD-A4AD-EDC77F655C0A}" name="Table1" displayName="Table1" ref="A3:H14" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A3:H14" xr:uid="{68F8B694-B22F-4CFD-A4AD-EDC77F655C0A}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68F8B694-B22F-4CFD-A4AD-EDC77F655C0A}" name="Table1" displayName="Table1" ref="A3:F14" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A3:F14" xr:uid="{68F8B694-B22F-4CFD-A4AD-EDC77F655C0A}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{658FE6E6-DA4C-4216-BC52-3D2AD00DF378}" name="TC_ID"/>
     <tableColumn id="2" xr3:uid="{B4E5EB5A-6E27-48DA-A743-8C935C753E33}" name="Title"/>
     <tableColumn id="3" xr3:uid="{9F9FB6ED-0879-4957-9C4E-648D1FBB9DB9}" name="Description" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{D98A6251-0AB1-44B9-A5F0-AA884825C495}" name="Test Data / Input"/>
     <tableColumn id="5" xr3:uid="{137D7F4B-0C73-469E-BAF0-A88A5FCE2F31}" name="Expected Result" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{FE8ADC3B-1CF5-4B5D-8630-48AF6CB09E17}" name="Automated"/>
-    <tableColumn id="7" xr3:uid="{ADD8F361-8A85-45ED-9C66-6DADB979F37B}" name="Test Refer"/>
     <tableColumn id="8" xr3:uid="{490DDC45-0D47-4CD3-89DE-11E4A7ADA9CB}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -700,30 +689,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -742,297 +729,225 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="29.25">
-      <c r="A4" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="29.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
